--- a/Benchmarks/001-IPM-Motor/Files/specifications.xlsx
+++ b/Benchmarks/001-IPM-Motor/Files/specifications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Matlab\SMEKlib Pro 3.0\Versions\3.0.1\Examples\Promos\Benchmark Problem - Small IPM\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Consulting\Promotion\COFEA\forked_repo\Benchmarks\001-IPM-Motor\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C3BF3-6D7C-4AEF-B73C-0297DC21565F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41FB58-3277-4223-8D8C-DCB4DD9D5040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="675" windowWidth="9405" windowHeight="15105" firstSheet="9" activeTab="9" xr2:uid="{EEF01CFA-9D92-40EF-962E-5C745A836096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="5" xr2:uid="{EEF01CFA-9D92-40EF-962E-5C745A836096}"/>
   </bookViews>
   <sheets>
     <sheet name="Winding specs" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Number of phases</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Ic</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Remanence flux density at</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FFC038-BD85-4854-BA8F-3EC5A54A6DF9}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D22"/>
     </sheetView>
   </sheetViews>
@@ -3955,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6ED6FA-EA79-41AA-8879-C45182BCA076}">
-  <dimension ref="A1:B327"/>
+  <dimension ref="A1:K327"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,7 +3972,7 @@
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -3974,23 +3980,36 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
         <v>-1.1999999999999999E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>B2*(1+B3*(J2-20))</f>
+        <v>1.1842400000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3998,7 +4017,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4006,7 +4025,7 @@
         <v>555555.55555555562</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4014,7 +4033,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4022,7 +4041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4030,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.01</v>
       </c>
@@ -4038,7 +4057,7 @@
         <v>7578.8068138997796</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.02</v>
       </c>
@@ -4046,7 +4065,7 @@
         <v>15157.613627799559</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.03</v>
       </c>
@@ -4054,7 +4073,7 @@
         <v>22736.420441699338</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.04</v>
       </c>
@@ -4062,7 +4081,7 @@
         <v>30315.227255599119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.05</v>
       </c>
@@ -4070,7 +4089,7 @@
         <v>37894.034069498899</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.06</v>
       </c>
@@ -4078,7 +4097,7 @@
         <v>45472.840883398676</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4086,7 +4105,7 @@
         <v>53051.64769729846</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.08</v>
       </c>
